--- a/data/16吨客车.xlsx
+++ b/data/16吨客车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9298A564-203A-2F4E-A57B-924FB6DF0A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F338B35-C68A-7644-B2A5-BBDFC244EBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
   <si>
     <t>单位</t>
   </si>
@@ -274,6 +274,17 @@
   </si>
   <si>
     <t>广州-深圳</t>
+  </si>
+  <si>
+    <t>电池容量</t>
+  </si>
+  <si>
+    <t>电池容量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>满载整车运价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -283,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,6 +342,14 @@
       <color rgb="FFEBB07A"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -403,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,6 +463,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,17 +1589,17 @@
       <c r="P18" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2171,40 +2193,40 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4">
-        <v>6.2111801242236</v>
+        <v>105</v>
       </c>
       <c r="D14" s="4">
-        <v>6.1490683229813703</v>
+        <v>105</v>
       </c>
       <c r="E14" s="4">
-        <v>6.0881987577639798</v>
+        <v>105</v>
       </c>
       <c r="F14" s="4">
-        <v>6.02853416149068</v>
+        <v>105</v>
       </c>
       <c r="G14" s="4">
-        <v>5.9700387577639704</v>
+        <v>105</v>
       </c>
       <c r="H14" s="4">
-        <v>5.9126781863354001</v>
+        <v>105</v>
       </c>
       <c r="I14" s="4">
-        <v>5.85641943304348</v>
+        <v>105</v>
       </c>
       <c r="J14" s="4">
-        <v>5.80123076391056</v>
+        <v>105</v>
       </c>
       <c r="K14" s="4">
-        <v>5.7470816631107597</v>
+        <v>105</v>
       </c>
       <c r="L14" s="4">
-        <v>5.69394277454363</v>
+        <v>105</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -2212,83 +2234,83 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
+      <c r="A15" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4">
-        <v>652.17391304347802</v>
+        <v>6.2111801242236</v>
       </c>
       <c r="D15" s="4">
-        <v>645.65217391304395</v>
+        <v>6.1490683229813703</v>
       </c>
       <c r="E15" s="4">
-        <v>639.26086956521794</v>
+        <v>6.0881987577639798</v>
       </c>
       <c r="F15" s="4">
-        <v>632.99608695652103</v>
+        <v>6.02853416149068</v>
       </c>
       <c r="G15" s="4">
-        <v>626.85406956521695</v>
+        <v>5.9700387577639704</v>
       </c>
       <c r="H15" s="4">
-        <v>620.83120956521702</v>
+        <v>5.9126781863354001</v>
       </c>
       <c r="I15" s="4">
-        <v>614.92404046956506</v>
+        <v>5.85641943304348</v>
       </c>
       <c r="J15" s="4">
-        <v>609.12923021060897</v>
+        <v>5.80123076391056</v>
       </c>
       <c r="K15" s="4">
-        <v>603.44357462663004</v>
+        <v>5.7470816631107597</v>
       </c>
       <c r="L15" s="4">
-        <v>597.86399132708095</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+        <v>5.69394277454363</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" s="6">
-        <v>2</v>
-      </c>
-      <c r="G16" s="6">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>2</v>
-      </c>
-      <c r="I16" s="6">
-        <v>2</v>
-      </c>
-      <c r="J16" s="6">
-        <v>2</v>
-      </c>
-      <c r="K16" s="6">
-        <v>2</v>
-      </c>
-      <c r="L16" s="6">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4">
+        <v>652.17391304347802</v>
+      </c>
+      <c r="D16" s="4">
+        <v>645.65217391304395</v>
+      </c>
+      <c r="E16" s="4">
+        <v>639.26086956521794</v>
+      </c>
+      <c r="F16" s="4">
+        <v>632.99608695652103</v>
+      </c>
+      <c r="G16" s="4">
+        <v>626.85406956521695</v>
+      </c>
+      <c r="H16" s="4">
+        <v>620.83120956521702</v>
+      </c>
+      <c r="I16" s="4">
+        <v>614.92404046956506</v>
+      </c>
+      <c r="J16" s="4">
+        <v>609.12923021060897</v>
+      </c>
+      <c r="K16" s="4">
+        <v>603.44357462663004</v>
+      </c>
+      <c r="L16" s="4">
+        <v>597.86399132708095</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -2296,41 +2318,41 @@
       <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="12">
-        <v>250</v>
-      </c>
-      <c r="D17" s="12">
-        <v>250</v>
-      </c>
-      <c r="E17" s="12">
-        <v>250</v>
-      </c>
-      <c r="F17" s="12">
-        <v>250</v>
-      </c>
-      <c r="G17" s="12">
-        <v>250</v>
-      </c>
-      <c r="H17" s="12">
-        <v>250</v>
-      </c>
-      <c r="I17" s="12">
-        <v>250</v>
-      </c>
-      <c r="J17" s="12">
-        <v>250</v>
-      </c>
-      <c r="K17" s="12">
-        <v>250</v>
-      </c>
-      <c r="L17" s="12">
-        <v>250</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -2339,207 +2361,249 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0.56499999999999995</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="12">
+        <v>250</v>
       </c>
       <c r="D18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="E18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="F18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="G18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="H18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="I18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="J18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="K18" s="12">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="L18" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="M18" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="O18" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="P18" s="12">
-        <v>0.57030000000000003</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0.57030000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="4">
         <v>0.2</v>
       </c>
-      <c r="D19" s="5">
-        <f t="shared" ref="D19:L19" si="3">C19</f>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:L20" si="3">C20</f>
         <v>0.2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="11" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="4">
         <v>5000</v>
       </c>
-      <c r="D20" s="5">
-        <f t="shared" ref="D20:L20" si="4">C20</f>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:L21" si="4">C21</f>
         <v>5000</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="11" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>2000</v>
       </c>
-      <c r="D21" s="5">
-        <f t="shared" ref="D21:L21" si="5">C21</f>
+      <c r="D22" s="5">
+        <f t="shared" ref="D22:L22" si="5">C22</f>
         <v>2000</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3300,350 +3364,392 @@
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="4">
         <v>6.2111801242236</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D19" s="4">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E19" s="4">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="4">
         <v>6.02853416149068</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G19" s="4">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="4">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I19" s="4">
         <v>5.85641943304348</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J19" s="4">
         <v>5.80123076391056</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K19" s="4">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L19" s="4">
         <v>5.69394277454363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="4">
-        <v>621.11801242236004</v>
-      </c>
-      <c r="D19" s="4">
-        <v>614.90683229813703</v>
-      </c>
-      <c r="E19" s="4">
-        <v>608.81987577639802</v>
-      </c>
-      <c r="F19" s="4">
-        <v>602.85341614906804</v>
-      </c>
-      <c r="G19" s="4">
-        <v>597.00387577639697</v>
-      </c>
-      <c r="H19" s="4">
-        <v>591.26781863353995</v>
-      </c>
-      <c r="I19" s="4">
-        <v>585.64194330434805</v>
-      </c>
-      <c r="J19" s="4">
-        <v>580.12307639105597</v>
-      </c>
-      <c r="K19" s="4">
-        <v>574.70816631107596</v>
-      </c>
-      <c r="L19" s="4">
-        <v>569.39427745436296</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
+        <v>621.11801242236004</v>
+      </c>
+      <c r="D20" s="4">
+        <v>614.90683229813703</v>
+      </c>
+      <c r="E20" s="4">
+        <v>608.81987577639802</v>
+      </c>
+      <c r="F20" s="4">
+        <v>602.85341614906804</v>
+      </c>
+      <c r="G20" s="4">
+        <v>597.00387577639697</v>
+      </c>
+      <c r="H20" s="4">
+        <v>591.26781863353995</v>
+      </c>
+      <c r="I20" s="4">
+        <v>585.64194330434805</v>
+      </c>
+      <c r="J20" s="4">
+        <v>580.12307639105597</v>
+      </c>
+      <c r="K20" s="4">
+        <v>574.70816631107596</v>
+      </c>
+      <c r="L20" s="4">
+        <v>569.39427745436296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L21" s="6">
         <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="12">
-        <v>500</v>
-      </c>
-      <c r="D21" s="12">
-        <v>500</v>
-      </c>
-      <c r="E21" s="12">
-        <v>500</v>
-      </c>
-      <c r="F21" s="12">
-        <v>500</v>
-      </c>
-      <c r="G21" s="12">
-        <v>500</v>
-      </c>
-      <c r="H21" s="12">
-        <v>500</v>
-      </c>
-      <c r="I21" s="12">
-        <v>500</v>
-      </c>
-      <c r="J21" s="12">
-        <v>500</v>
-      </c>
-      <c r="K21" s="12">
-        <v>500</v>
-      </c>
-      <c r="L21" s="12">
-        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="12">
+        <v>500</v>
+      </c>
+      <c r="D22" s="12">
+        <v>500</v>
+      </c>
+      <c r="E22" s="12">
+        <v>500</v>
+      </c>
+      <c r="F22" s="12">
+        <v>500</v>
+      </c>
+      <c r="G22" s="12">
+        <v>500</v>
+      </c>
+      <c r="H22" s="12">
+        <v>500</v>
+      </c>
+      <c r="I22" s="12">
+        <v>500</v>
+      </c>
+      <c r="J22" s="12">
+        <v>500</v>
+      </c>
+      <c r="K22" s="12">
+        <v>500</v>
+      </c>
+      <c r="L22" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P23" s="13">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <v>0.2</v>
       </c>
-      <c r="D23" s="5">
-        <f t="shared" ref="D23:L23" si="3">C23</f>
+      <c r="D24" s="5">
+        <f t="shared" ref="D24:L24" si="3">C24</f>
         <v>0.2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="4">
         <v>5000</v>
       </c>
-      <c r="D24" s="5">
-        <f t="shared" ref="D24:L24" si="4">C24</f>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:L25" si="4">C25</f>
         <v>5000</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C26" s="4">
         <v>2000</v>
       </c>
-      <c r="D25" s="5">
-        <f t="shared" ref="D25:L25" si="5">C25</f>
+      <c r="D26" s="5">
+        <f t="shared" ref="D26:L26" si="5">C26</f>
         <v>2000</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3652,8 +3758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3846,44 +3952,43 @@
         <v>55</v>
       </c>
       <c r="C5" s="4">
-        <f>C6*8</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" ref="D5:L5" si="3">C5</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I5" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4160,27 +4265,26 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -4199,8 +4303,11 @@
       <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
@@ -4211,7 +4318,8 @@
         <v>0.34</v>
       </c>
       <c r="D2" s="2">
-        <v>10100</v>
+        <f>G2*0.5</f>
+        <v>5050</v>
       </c>
       <c r="E2" s="2">
         <v>5</v>
@@ -4219,8 +4327,11 @@
       <c r="F2" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -4231,7 +4342,8 @@
         <v>0.38</v>
       </c>
       <c r="D3" s="2">
-        <v>5550</v>
+        <f t="shared" ref="D3:D7" si="0">G3*0.5</f>
+        <v>2775</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -4239,8 +4351,11 @@
       <c r="F3" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
@@ -4251,7 +4366,8 @@
         <v>0.37</v>
       </c>
       <c r="D4" s="2">
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -4259,8 +4375,11 @@
       <c r="F4" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
@@ -4271,7 +4390,8 @@
         <v>0.51</v>
       </c>
       <c r="D5" s="2">
-        <v>3800</v>
+        <f t="shared" si="0"/>
+        <v>1900</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -4279,8 +4399,11 @@
       <c r="F5" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>77</v>
       </c>
@@ -4291,7 +4414,8 @@
         <v>0.38</v>
       </c>
       <c r="D6" s="2">
-        <v>2600</v>
+        <f t="shared" si="0"/>
+        <v>1300</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -4299,8 +4423,11 @@
       <c r="F6" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
@@ -4311,7 +4438,8 @@
         <v>0.47</v>
       </c>
       <c r="D7" s="2">
-        <v>3250</v>
+        <f t="shared" si="0"/>
+        <v>1625</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -4319,9 +4447,12 @@
       <c r="F7" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="G7" s="2">
+        <v>3250</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/16吨客车.xlsx
+++ b/data/16吨客车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F338B35-C68A-7644-B2A5-BBDFC244EBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5835570F-3C10-0149-93D5-AF3A659959BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
   <si>
     <t>单位</t>
   </si>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>满载整车运价</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>满载率</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,6 +470,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3758,7 +3765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4272,9 +4279,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
@@ -4284,7 +4291,7 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -4306,8 +4313,11 @@
       <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
@@ -4318,8 +4328,8 @@
         <v>0.34</v>
       </c>
       <c r="D2" s="2">
-        <f>G2*0.5</f>
-        <v>5050</v>
+        <f>G2*H2</f>
+        <v>3030</v>
       </c>
       <c r="E2" s="2">
         <v>5</v>
@@ -4330,8 +4340,12 @@
       <c r="G2" s="2">
         <v>10100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <f>0.3</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -4342,8 +4356,8 @@
         <v>0.38</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D7" si="0">G3*0.5</f>
-        <v>2775</v>
+        <f t="shared" ref="D3:D7" si="0">G3*H3</f>
+        <v>1665</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -4354,8 +4368,12 @@
       <c r="G3" s="2">
         <v>5550</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="1">0.3</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
@@ -4367,7 +4385,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="E4" s="2">
         <v>5</v>
@@ -4378,8 +4396,12 @@
       <c r="G4" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>76</v>
       </c>
@@ -4391,7 +4413,7 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>1140</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -4402,8 +4424,12 @@
       <c r="G5" s="2">
         <v>3800</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>77</v>
       </c>
@@ -4415,7 +4441,7 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>780</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -4426,8 +4452,12 @@
       <c r="G6" s="2">
         <v>2600</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
@@ -4439,7 +4469,7 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1625</v>
+        <v>975</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -4449,6 +4479,10 @@
       </c>
       <c r="G7" s="2">
         <v>3250</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/data/16吨客车.xlsx
+++ b/data/16吨客车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5835570F-3C10-0149-93D5-AF3A659959BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD51D07-43AB-D440-99AA-0F17C4942725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="87">
   <si>
     <t>单位</t>
   </si>
@@ -288,6 +288,22 @@
   </si>
   <si>
     <t>满载率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均负载率</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>%,考虑每趟满载的可能性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>行驶时间占比</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>%,考虑接不到单或高频装卸货时间</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +488,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1605,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2193,10 +2209,18 @@
       <c r="L13" s="3">
         <v>0.9</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="M13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="3" t="s">
@@ -2609,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3123,22 +3147,10 @@
       <c r="L12" s="7">
         <v>5</v>
       </c>
-      <c r="M12" s="4">
-        <f>L12</f>
-        <v>5</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" ref="N12:P12" si="0">M12</f>
-        <v>5</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
@@ -3152,39 +3164,39 @@
         <v>916000</v>
       </c>
       <c r="D13" s="9">
-        <f t="shared" ref="D13:L13" si="1">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
+        <f t="shared" ref="D13:L13" si="0">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>650963.05651344778</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>587298.25374250556</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>560284.22828128492</v>
       </c>
       <c r="G13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>538509.52583816252</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>441344.07196994114</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>406139.33527364931</v>
       </c>
       <c r="J13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>387949.76338534371</v>
       </c>
       <c r="K13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>380328.98288093018</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>374184.52875570272</v>
       </c>
       <c r="M13" s="6"/>
@@ -3242,43 +3254,43 @@
         <v>2</v>
       </c>
       <c r="C15" s="9">
-        <f t="shared" ref="C15:L15" si="2">C14+C13</f>
+        <f t="shared" ref="C15:L15" si="1">C14+C13</f>
         <v>977296.02090787957</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>699095.44423742639</v>
       </c>
       <c r="E15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>632149.84964089887</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>603562.2493749049</v>
       </c>
       <c r="G15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>580509.57857256883</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>478756.67850432015</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>441847.17359676503</v>
       </c>
       <c r="J15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>422709.03909754573</v>
       </c>
       <c r="K15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>414625.49453786697</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>408114.84641438001</v>
       </c>
       <c r="M15" s="12"/>
@@ -3365,10 +3377,18 @@
       <c r="L17" s="4">
         <v>41</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="M17" s="4">
+        <v>41</v>
+      </c>
+      <c r="N17" s="4">
+        <v>41</v>
+      </c>
+      <c r="O17" s="4">
+        <v>41</v>
+      </c>
+      <c r="P17" s="4">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="14" t="s">
@@ -3625,39 +3645,39 @@
         <v>0.2</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" ref="D24:L24" si="3">C24</f>
+        <f t="shared" ref="D24:L24" si="2">C24</f>
         <v>0.2</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3672,39 +3692,39 @@
         <v>5000</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" ref="D25:L25" si="4">C25</f>
+        <f t="shared" ref="D25:L25" si="3">C25</f>
         <v>5000</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
     </row>
@@ -3719,39 +3739,39 @@
         <v>2000</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" ref="D26:L26" si="5">C26</f>
+        <f t="shared" ref="D26:L26" si="4">C26</f>
         <v>2000</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2000</v>
       </c>
     </row>
@@ -3763,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4271,6 +4291,82 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="6">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6">
+        <v>50</v>
+      </c>
+      <c r="H12" s="6">
+        <v>50</v>
+      </c>
+      <c r="I12" s="6">
+        <v>50</v>
+      </c>
+      <c r="J12" s="6">
+        <v>50</v>
+      </c>
+      <c r="K12" s="6">
+        <v>50</v>
+      </c>
+      <c r="L12" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="6">
+        <v>100</v>
+      </c>
+      <c r="D13" s="6">
+        <v>100</v>
+      </c>
+      <c r="E13" s="6">
+        <v>100</v>
+      </c>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13" s="6">
+        <v>100</v>
+      </c>
+      <c r="H13" s="6">
+        <v>100</v>
+      </c>
+      <c r="I13" s="6">
+        <v>100</v>
+      </c>
+      <c r="J13" s="6">
+        <v>100</v>
+      </c>
+      <c r="K13" s="6">
+        <v>100</v>
+      </c>
+      <c r="L13" s="6">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4281,7 +4377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
@@ -4313,7 +4409,7 @@
       <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>82</v>
       </c>
     </row>
